--- a/excel/2/IRA and 401k.xlsx
+++ b/excel/2/IRA and 401k.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{D1B04704-ABF5-824B-8163-2E9556482B65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{D1B04704-ABF5-824B-8163-2E9556482B65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Value</a:t>
+              <a:t> Value vs Age</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1308,10 +1308,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D412B-D8B7-B04A-8D2F-7E01F0A97B60}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
